--- a/Question3/PokemonIndex.xlsx
+++ b/Question3/PokemonIndex.xlsx
@@ -2717,7 +2717,7 @@
         <v>353</v>
       </c>
       <c r="I4">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0.017</v>
@@ -2864,7 +2864,7 @@
         <v>354</v>
       </c>
       <c r="I7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0.0031</v>
@@ -3011,7 +3011,7 @@
         <v>355</v>
       </c>
       <c r="I10">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0.0067</v>
@@ -3158,7 +3158,7 @@
         <v>356</v>
       </c>
       <c r="I13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0.022</v>
@@ -3305,7 +3305,7 @@
         <v>357</v>
       </c>
       <c r="I16">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0.051</v>
@@ -3452,7 +3452,7 @@
         <v>358</v>
       </c>
       <c r="I19">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0.13</v>
@@ -3549,7 +3549,7 @@
         <v>359</v>
       </c>
       <c r="I21">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0.41</v>
@@ -3646,7 +3646,7 @@
         <v>360</v>
       </c>
       <c r="I23">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0.15</v>
@@ -3743,7 +3743,7 @@
         <v>361</v>
       </c>
       <c r="I25">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0.07199999999999999</v>
@@ -3840,7 +3840,7 @@
         <v>362</v>
       </c>
       <c r="I27">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0.0076</v>
@@ -3937,7 +3937,7 @@
         <v>363</v>
       </c>
       <c r="I29">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0.037</v>
@@ -4084,7 +4084,7 @@
         <v>364</v>
       </c>
       <c r="I32">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0.012</v>
@@ -4231,7 +4231,7 @@
         <v>365</v>
       </c>
       <c r="I35">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0.017</v>
@@ -4328,7 +4328,7 @@
         <v>366</v>
       </c>
       <c r="I37">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0.012</v>
@@ -4425,7 +4425,7 @@
         <v>367</v>
       </c>
       <c r="I39">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0.0077</v>
@@ -4522,7 +4522,7 @@
         <v>368</v>
       </c>
       <c r="I41">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0.018</v>
@@ -4619,7 +4619,7 @@
         <v>369</v>
       </c>
       <c r="I43">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0.42</v>
@@ -4766,7 +4766,7 @@
         <v>370</v>
       </c>
       <c r="I46">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0.0097</v>
@@ -4863,7 +4863,7 @@
         <v>371</v>
       </c>
       <c r="I48">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0.074</v>
@@ -4960,7 +4960,7 @@
         <v>372</v>
       </c>
       <c r="I50">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0.07199999999999999</v>
@@ -5057,7 +5057,7 @@
         <v>67</v>
       </c>
       <c r="I52">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0.014</v>
@@ -5154,7 +5154,7 @@
         <v>374</v>
       </c>
       <c r="I54">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0.022</v>
@@ -5251,7 +5251,7 @@
         <v>375</v>
       </c>
       <c r="I56">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0.08699999999999999</v>
@@ -5348,7 +5348,7 @@
         <v>376</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0.031</v>
@@ -5445,7 +5445,7 @@
         <v>377</v>
       </c>
       <c r="I60">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0.017</v>
@@ -5592,7 +5592,7 @@
         <v>378</v>
       </c>
       <c r="I63">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0.011</v>
@@ -5739,7 +5739,7 @@
         <v>379</v>
       </c>
       <c r="I66">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0.0073</v>
@@ -5886,7 +5886,7 @@
         <v>380</v>
       </c>
       <c r="I69">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0.0068</v>
@@ -6033,7 +6033,7 @@
         <v>381</v>
       </c>
       <c r="I72">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0.0059</v>
@@ -6130,7 +6130,7 @@
         <v>382</v>
       </c>
       <c r="I74">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0.082</v>
@@ -6277,7 +6277,7 @@
         <v>383</v>
       </c>
       <c r="I77">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0.0047</v>
@@ -6374,7 +6374,7 @@
         <v>384</v>
       </c>
       <c r="I79">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0.011</v>
@@ -6471,7 +6471,7 @@
         <v>385</v>
       </c>
       <c r="I81">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0.036</v>
@@ -6568,7 +6568,7 @@
         <v>386</v>
       </c>
       <c r="I83">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0.023</v>
@@ -6615,7 +6615,7 @@
         <v>387</v>
       </c>
       <c r="I84">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -6712,7 +6712,7 @@
         <v>388</v>
       </c>
       <c r="I86">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0.22</v>
@@ -6809,7 +6809,7 @@
         <v>389</v>
       </c>
       <c r="I88">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0.013</v>
@@ -6906,7 +6906,7 @@
         <v>390</v>
       </c>
       <c r="I90">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0.0031</v>
@@ -7003,7 +7003,7 @@
         <v>391</v>
       </c>
       <c r="I92">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0.015</v>
@@ -7150,7 +7150,7 @@
         <v>392</v>
       </c>
       <c r="I95">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0.0067</v>
@@ -7197,7 +7197,7 @@
         <v>387</v>
       </c>
       <c r="I96">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>10</v>
@@ -7294,7 +7294,7 @@
         <v>393</v>
       </c>
       <c r="I98">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0.1</v>
@@ -7391,7 +7391,7 @@
         <v>394</v>
       </c>
       <c r="I100">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0.062</v>
@@ -7488,7 +7488,7 @@
         <v>395</v>
       </c>
       <c r="I102">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0.02</v>
@@ -7585,7 +7585,7 @@
         <v>396</v>
       </c>
       <c r="I104">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0.014</v>
@@ -7682,7 +7682,7 @@
         <v>397</v>
       </c>
       <c r="I106">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0.02</v>
@@ -7729,7 +7729,7 @@
         <v>387</v>
       </c>
       <c r="I107">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>10</v>
@@ -7776,7 +7776,7 @@
         <v>387</v>
       </c>
       <c r="I108">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>10</v>
@@ -7823,7 +7823,7 @@
         <v>387</v>
       </c>
       <c r="I109">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -7920,7 +7920,7 @@
         <v>398</v>
       </c>
       <c r="I111">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0.016</v>
@@ -8017,7 +8017,7 @@
         <v>399</v>
       </c>
       <c r="I113">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0.022</v>
@@ -8064,7 +8064,7 @@
         <v>387</v>
       </c>
       <c r="I114">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>10</v>
@@ -8111,7 +8111,7 @@
         <v>387</v>
       </c>
       <c r="I115">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>5</v>
@@ -8158,7 +8158,7 @@
         <v>387</v>
       </c>
       <c r="I116">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>5</v>
@@ -8255,7 +8255,7 @@
         <v>400</v>
       </c>
       <c r="I118">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0.034</v>
@@ -8352,7 +8352,7 @@
         <v>401</v>
       </c>
       <c r="I120">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0.08</v>
@@ -8449,7 +8449,7 @@
         <v>402</v>
       </c>
       <c r="I122">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0.034</v>
@@ -8496,7 +8496,7 @@
         <v>387</v>
       </c>
       <c r="I123">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>10</v>
@@ -8543,7 +8543,7 @@
         <v>387</v>
       </c>
       <c r="I124">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>10</v>
@@ -8590,7 +8590,7 @@
         <v>387</v>
       </c>
       <c r="I125">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>10</v>
@@ -8637,7 +8637,7 @@
         <v>387</v>
       </c>
       <c r="I126">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>10</v>
@@ -8684,7 +8684,7 @@
         <v>387</v>
       </c>
       <c r="I127">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>10</v>
@@ -8731,7 +8731,7 @@
         <v>387</v>
       </c>
       <c r="I128">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>10</v>
@@ -8778,7 +8778,7 @@
         <v>387</v>
       </c>
       <c r="I129">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>5</v>
@@ -8875,7 +8875,7 @@
         <v>403</v>
       </c>
       <c r="I131">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0.0032</v>
@@ -8922,7 +8922,7 @@
         <v>387</v>
       </c>
       <c r="I132">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>10</v>
@@ -8969,7 +8969,7 @@
         <v>387</v>
       </c>
       <c r="I133">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>404</v>
       </c>
       <c r="I135">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0.014</v>
@@ -9110,7 +9110,7 @@
         <v>387</v>
       </c>
       <c r="I136">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0.012</v>
@@ -9157,7 +9157,7 @@
         <v>404</v>
       </c>
       <c r="I137">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0.017</v>
@@ -9204,7 +9204,7 @@
         <v>387</v>
       </c>
       <c r="I138">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>5</v>
@@ -9301,7 +9301,7 @@
         <v>387</v>
       </c>
       <c r="I140">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0.0061</v>
@@ -9398,7 +9398,7 @@
         <v>406</v>
       </c>
       <c r="I142">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0.0032</v>
@@ -9445,7 +9445,7 @@
         <v>387</v>
       </c>
       <c r="I143">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>10</v>
@@ -9492,7 +9492,7 @@
         <v>387</v>
       </c>
       <c r="I144">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>10</v>
@@ -9539,7 +9539,7 @@
         <v>387</v>
       </c>
       <c r="I145">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>387</v>
       </c>
       <c r="I146">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>387</v>
       </c>
       <c r="I147">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>407</v>
       </c>
       <c r="I150">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0.0011</v>
@@ -9818,7 +9818,7 @@
         <v>387</v>
       </c>
       <c r="I151">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -9862,7 +9862,7 @@
         <v>387</v>
       </c>
       <c r="I152">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
